--- a/datos_fbref/CLASIFICACION_LIGA_La_Liga.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_La_Liga.xlsx
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -637,23 +637,23 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L L D W L</t>
+          <t>L D W L W</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -1530,30 +1530,30 @@
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
         <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I20" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L W D L L</t>
+          <t>W D L L L</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20795</v>
+        <v>20575</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>

--- a/datos_fbref/CLASIFICACION_LIGA_La_Liga.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_La_Liga.xlsx
@@ -901,52 +901,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H9" t="n">
         <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K9" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>W W D W L</t>
+          <t>L D W W W</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>31242</v>
+        <v>48000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Mikel Oyarzabal - 10</t>
+          <t>Gorka Guruzeta - 6</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Álex Remiro</t>
+          <t>Unai Simón</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -957,29 +957,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>24</v>
       </c>
       <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11</v>
-      </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="n">
         <v>31</v>
@@ -989,20 +989,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L L D W W</t>
+          <t>W W D W L</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>48112</v>
+        <v>31242</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Roberto Navarro - 5</t>
+          <t>Mikel Oyarzabal - 10</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Unai Simón</t>
+          <t>Álex Remiro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -1362,26 +1362,26 @@
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I17" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="J17" t="n">
         <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>D L L L D</t>
+          <t>L L L D L</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Rafa Mir - 6</t>
+          <t>André Silva, Rafa Mir - 6</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
